--- a/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahschoultz/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/48v to Cryo Board Cable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58AACDC-3E5A-6E47-B23C-1C46B95C2745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2947C-0B3B-C543-8A05-6D06F622433E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="3140" windowWidth="15600" windowHeight="11980" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="4100" yWindow="3140" windowWidth="24600" windowHeight="14880" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Material</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Order Number of Distributor</t>
   </si>
   <si>
-    <t>Shrink tube</t>
-  </si>
-  <si>
-    <t>Metal braid</t>
-  </si>
-  <si>
     <t>Plastic braid</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t>Red 14 awg</t>
   </si>
   <si>
-    <t>Eyeconnector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flat connector </t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t>Crimping on eye tips</t>
   </si>
   <si>
-    <t>Flat crimper</t>
-  </si>
-  <si>
     <t>Crimping on flat tips</t>
   </si>
   <si>
@@ -232,23 +217,94 @@
   </si>
   <si>
     <t>Measuring lengths of materials</t>
+  </si>
+  <si>
+    <t>40in</t>
+  </si>
+  <si>
+    <t>17in</t>
+  </si>
+  <si>
+    <t>.203 Metal Braid</t>
+  </si>
+  <si>
+    <t>Glenari</t>
+  </si>
+  <si>
+    <t>100-001A203</t>
+  </si>
+  <si>
+    <t>654-100001A203</t>
+  </si>
+  <si>
+    <t>12.7mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>27.5in</t>
+  </si>
+  <si>
+    <t>1.5in</t>
+  </si>
+  <si>
+    <t>6.4mm in adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>Metal Braid</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrule connector </t>
+  </si>
+  <si>
+    <t>Ferrule crimper</t>
+  </si>
+  <si>
+    <t>650-DWP-125-1/2-0</t>
+  </si>
+  <si>
+    <t>DWP-125-1/2-0-STK</t>
+  </si>
+  <si>
+    <t>1.75in</t>
+  </si>
+  <si>
+    <t>28in</t>
+  </si>
+  <si>
+    <t>8 Eye connector</t>
+  </si>
+  <si>
+    <t>(11-8)</t>
+  </si>
+  <si>
+    <t>517-2224</t>
+  </si>
+  <si>
+    <t>3M Electronic Specialty</t>
+  </si>
+  <si>
+    <t>Wire tips</t>
+  </si>
+  <si>
+    <t>651-3200522</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,13 +321,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,18 +346,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,16 +692,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -663,242 +713,329 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
         <v>48</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="M7" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3200522</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
         <v>37</v>
       </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L15" s="2" t="s">
-        <v>39</v>
+      <c r="L15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/48v to Cryo Board Cable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2947C-0B3B-C543-8A05-6D06F622433E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC2F4E-9EBD-A340-913C-50B409D438B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="3140" windowWidth="24600" windowHeight="14880" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>Material</t>
   </si>
@@ -153,15 +153,9 @@
     <t>ALPHA WIRE</t>
   </si>
   <si>
-    <t>6712 BK005</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
-    <t>602-6712-100-02</t>
-  </si>
-  <si>
     <t>6717 RD005</t>
   </si>
   <si>
@@ -204,15 +198,6 @@
     <t>TE Connectivity / Raychem</t>
   </si>
   <si>
-    <t>RNF-100-1/8-BK-STK</t>
-  </si>
-  <si>
-    <t>Newark</t>
-  </si>
-  <si>
-    <t>09J3954</t>
-  </si>
-  <si>
     <t>Imperial measuring tape</t>
   </si>
   <si>
@@ -295,6 +280,15 @@
   </si>
   <si>
     <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>6710 BK001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-02</t>
+  </si>
+  <si>
+    <t>RNF-100-1/8-BK-SP</t>
   </si>
 </sst>
 </file>
@@ -326,12 +320,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,19 +346,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +678,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,23 +726,23 @@
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -753,27 +755,27 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -784,19 +786,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
+      <c r="G4" t="s">
+        <v>83</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -806,26 +808,26 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
+      <c r="A5" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
@@ -836,25 +838,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -865,54 +867,54 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
@@ -923,25 +925,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>86</v>
+      <c r="D9" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="3">
         <v>3200522</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
@@ -952,59 +954,59 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>81</v>
+      <c r="D10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
@@ -1024,7 +1026,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>

--- a/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC2F4E-9EBD-A340-913C-50B409D438B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37EE698-2CAC-F440-AF7B-47BF8B479361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="3140" windowWidth="24600" windowHeight="14880" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -210,24 +210,9 @@
     <t>17in</t>
   </si>
   <si>
-    <t>.203 Metal Braid</t>
-  </si>
-  <si>
-    <t>Glenari</t>
-  </si>
-  <si>
-    <t>100-001A203</t>
-  </si>
-  <si>
-    <t>654-100001A203</t>
-  </si>
-  <si>
     <t>12.7mm adhesive shrink tube</t>
   </si>
   <si>
-    <t>27.5in</t>
-  </si>
-  <si>
     <t>1.5in</t>
   </si>
   <si>
@@ -289,6 +274,21 @@
   </si>
   <si>
     <t>RNF-100-1/8-BK-SP</t>
+  </si>
+  <si>
+    <t>1/8 metal braid</t>
+  </si>
+  <si>
+    <t>27.5 in</t>
+  </si>
+  <si>
+    <t>Glenair</t>
+  </si>
+  <si>
+    <t>100-001A125</t>
+  </si>
+  <si>
+    <t>654-100001A125</t>
   </si>
 </sst>
 </file>
@@ -320,18 +320,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,21 +340,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +671,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,13 +785,13 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -808,26 +801,26 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>61</v>
+      <c r="G5" t="s">
+        <v>84</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
@@ -844,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>45</v>
@@ -867,25 +860,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
@@ -896,25 +889,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
@@ -925,16 +918,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3">
         <v>3200522</v>
@@ -943,7 +936,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
@@ -954,25 +947,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
         <v>28</v>
@@ -982,7 +975,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -995,13 +988,13 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
@@ -1026,7 +1019,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>

--- a/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/List of materials (48v).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v to Cryo Board Cable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37EE698-2CAC-F440-AF7B-47BF8B479361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D020EB-E3D2-4849-B148-7945E1649F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="3140" windowWidth="24600" windowHeight="14880" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +674,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,7 +932,7 @@
       <c r="D9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>3200522</v>
       </c>
       <c r="F9" s="3" t="s">
